--- a/TestCases/05-LeaveEntitledHRM.xlsx
+++ b/TestCases/05-LeaveEntitledHRM.xlsx
@@ -590,22 +590,130 @@
   </cellStyleXfs>
   <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,9 +764,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,25 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,93 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1178,1707 +1178,1885 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="47">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="76">
         <v>43201</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="47">
+      <c r="H9" s="33"/>
+      <c r="I9" s="76">
         <v>43203</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="33" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="73"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="74"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="45"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="45"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="45"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="45"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="45"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="45"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="45"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="46"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="18">
         <v>43101</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="84" t="s">
+      <c r="H28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="79" t="s">
+      <c r="I28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="80"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="78"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="78"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="25">
         <v>43130</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="78"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="78"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="78"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="39"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="78"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="78"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="78"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="78"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="78"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="91" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="78"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="78"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="81"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="84" t="s">
+      <c r="H43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J43" s="84"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="45"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="45"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="45"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="45"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="45"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="45"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="45"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="6"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="45"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="45"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="45"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="6"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="45"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="91" t="s">
+      <c r="E55" s="20"/>
+      <c r="F55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="45"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="45"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="46"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="85">
+      <c r="E58" s="18">
         <v>43158</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H58" s="84" t="s">
+      <c r="H58" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I58" s="79" t="s">
+      <c r="I58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J58" s="45"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E61" s="82" t="s">
+      <c r="E61" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="88"/>
-      <c r="F70" s="91" t="s">
+      <c r="E70" s="20"/>
+      <c r="F70" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4" t="s">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H73" s="84" t="s">
+      <c r="H73" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="79" t="s">
+      <c r="I73" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J73" s="84"/>
+      <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="45"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="6"/>
     </row>
     <row r="75" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="46"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="93" t="s">
+      <c r="E76" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H76" s="84" t="s">
+      <c r="H76" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="79" t="s">
+      <c r="I76" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J76" s="84"/>
+      <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="45"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="46"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="84" t="s">
+      <c r="H79" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I79" s="79" t="s">
+      <c r="I79" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J79" s="84"/>
+      <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="45"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="45"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="B82" s="1"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="45"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="45"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="45"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="6"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="45"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="45"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="45"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
+      <c r="B88" s="1"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="3">
         <v>2</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="45"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="6"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="45"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="6"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="45"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="6"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5" t="s">
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="45"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="6"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="45"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="6"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="46"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4" t="s">
+      <c r="E94" s="11"/>
+      <c r="F94" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H94" s="84" t="s">
+      <c r="H94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I94" s="79" t="s">
+      <c r="I94" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J94" s="84"/>
+      <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="45"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="45"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="6"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5" t="s">
+      <c r="B97" s="1"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="45"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="6"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="45"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="6"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="45"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="6"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5" t="s">
+      <c r="B100" s="1"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="45"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="6"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="45"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="45"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="6"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="B103" s="1"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="3">
         <v>20</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="45"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="6"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="45"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="6"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="45"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="6"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5" t="s">
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="45"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="6"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="45"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="6"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="46"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="46"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="7"/>
     </row>
     <row r="109" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4" t="s">
+      <c r="E109" s="11"/>
+      <c r="F109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H109" s="84" t="s">
+      <c r="H109" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I109" s="79" t="s">
+      <c r="I109" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J109" s="84"/>
+      <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="45"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="6"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="45"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="6"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5" t="s">
+      <c r="B112" s="1"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
+      <c r="E112" s="3"/>
+      <c r="F112" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="45"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="6"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="45"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="6"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="45"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="6"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
+      <c r="B115" s="1"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5" t="s">
+      <c r="E115" s="3"/>
+      <c r="F115" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="45"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="6"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="45"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="6"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="45"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="6"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5" t="s">
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="45"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="45"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="6"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="42"/>
-      <c r="J120" s="45"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="6"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5" t="s">
+      <c r="B121" s="1"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="45"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="6"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="45"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="43"/>
-      <c r="J123" s="46"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
+      <c r="E124" s="3"/>
+      <c r="F124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="14"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G124" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="I124" s="79" t="s">
+      <c r="G127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I127" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J124" s="45"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-      <c r="J126" s="46"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H127" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="I127" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="J127" s="45"/>
+      <c r="J127" s="6"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
     </row>
     <row r="129" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="96"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="94"/>
-      <c r="E129" s="94"/>
-      <c r="F129" s="94"/>
-      <c r="G129" s="94"/>
-      <c r="H129" s="95"/>
-      <c r="I129" s="95"/>
-      <c r="J129" s="95"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="B109:B123"/>
+    <mergeCell ref="C109:C123"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G123"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="G3:H5"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="I9:J11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="I28:I42"/>
+    <mergeCell ref="J28:J42"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="G28:G42"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="C43:C57"/>
+    <mergeCell ref="G43:G57"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H28:H42"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="H43:H57"/>
+    <mergeCell ref="I43:I57"/>
+    <mergeCell ref="J43:J57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G58:G72"/>
+    <mergeCell ref="H58:H72"/>
+    <mergeCell ref="I58:I72"/>
+    <mergeCell ref="J58:J72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="B58:B72"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="C58:C72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="H79:H93"/>
+    <mergeCell ref="I79:I93"/>
+    <mergeCell ref="J79:J93"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="B79:B93"/>
+    <mergeCell ref="C79:C93"/>
+    <mergeCell ref="G79:G93"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="H109:H123"/>
+    <mergeCell ref="I109:I123"/>
+    <mergeCell ref="J109:J123"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="G124:G126"/>
+    <mergeCell ref="H124:H126"/>
+    <mergeCell ref="I124:I126"/>
+    <mergeCell ref="J124:J126"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="H127:H129"/>
+    <mergeCell ref="I127:I129"/>
+    <mergeCell ref="J127:J129"/>
     <mergeCell ref="B127:B129"/>
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="D127:D129"/>
@@ -2903,184 +3081,6 @@
     <mergeCell ref="C124:C126"/>
     <mergeCell ref="D124:D126"/>
     <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="G124:G126"/>
-    <mergeCell ref="H124:H126"/>
-    <mergeCell ref="I124:I126"/>
-    <mergeCell ref="J124:J126"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="H127:H129"/>
-    <mergeCell ref="I127:I129"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="H109:H123"/>
-    <mergeCell ref="I109:I123"/>
-    <mergeCell ref="J109:J123"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="B79:B93"/>
-    <mergeCell ref="C79:C93"/>
-    <mergeCell ref="G79:G93"/>
-    <mergeCell ref="H79:H93"/>
-    <mergeCell ref="I79:I93"/>
-    <mergeCell ref="J79:J93"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="B58:B72"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="C58:C72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G58:G72"/>
-    <mergeCell ref="H58:H72"/>
-    <mergeCell ref="I58:I72"/>
-    <mergeCell ref="J58:J72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H43:H57"/>
-    <mergeCell ref="I43:I57"/>
-    <mergeCell ref="J43:J57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="G28:G42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="C43:C57"/>
-    <mergeCell ref="G43:G57"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="H28:H42"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="I28:I42"/>
-    <mergeCell ref="J28:J42"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="I9:J11"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B109:B123"/>
-    <mergeCell ref="C109:C123"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G123"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1"/>
